--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_6_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9030.591998064694</v>
+        <v>1797087.807614871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9030.591998064694</v>
+        <v>1797087.807614871</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14087.52353682104</v>
+        <v>845251.4122092625</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14087.52353682104</v>
+        <v>845251.4122092625</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035431921.777772</v>
+        <v>41657639.27667687</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9201.051067461127</v>
+        <v>936602.4335107605</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17890.50157617122</v>
+        <v>1786681.935735262</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26579.95208488129</v>
+        <v>2636761.437959764</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36211.99030161209</v>
+        <v>3435766.997333892</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45844.02851834286</v>
+        <v>4234772.556708021</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>54633.30643192974</v>
+        <v>5084852.058932521</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>63848.31225399682</v>
+        <v>5950335.170936574</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72985.91300179478</v>
+        <v>6800414.673161073</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>82966.27405273665</v>
+        <v>7599420.232535196</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92168.21164105508</v>
+        <v>8437730.500772191</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101305.812388853</v>
+        <v>9287810.002996694</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110443.4131366509</v>
+        <v>10137889.5052212</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>119581.0138844489</v>
+        <v>10987969.00744571</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128786.5340135808</v>
+        <v>11825895.63376271</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138341.1671560425</v>
+        <v>12609497.58335729</v>
       </c>
     </row>
   </sheetData>
